--- a/legendre_out/CSV/analytically/p1/a0/a0Fit.xlsx
+++ b/legendre_out/CSV/analytically/p1/a0/a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,13 +372,45 @@
           <t>a0</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>4.736371759326623e-07</v>
+        <v>1.501864203781168e-06</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.216290010223415e-08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>511.6216330933581</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>85.27027218222635</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +418,19 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>1.04806374354466e-06</v>
+        <v>2.666334657922322e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.172034716274399e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>424.9478602581632</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>70.82464337636054</v>
       </c>
     </row>
     <row r="4">
@@ -394,7 +438,19 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>9.207739078405486e-07</v>
+        <v>1.811696244186978e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.124862462760914e-08</v>
+      </c>
+      <c r="D4" t="n">
+        <v>377.9736002393048</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62.99560003988413</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +458,19 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>5.062346819641935e-06</v>
+        <v>5.593580416685502e-06</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.904075376747593e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>84.04145571974469</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.551115123125783e-16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.00690928662411</v>
       </c>
     </row>
     <row r="6">
@@ -410,7 +478,19 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>4.970745692312014e-06</v>
+        <v>6.404701707829142e-06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.123016745286201e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>181.0430613356754</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30.1738435559459</v>
       </c>
     </row>
     <row r="7">
@@ -418,7 +498,19 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>2.263070711079983e-06</v>
+        <v>3.880285883556722e-06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.71260810832909e-07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>315.9568642000144</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>52.65947736666907</v>
       </c>
     </row>
     <row r="8">
@@ -426,7 +518,19 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>6.650609872858918e-06</v>
+        <v>7.017511120439605e-06</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.414255749581691e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>82.54875389443606</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.110223024625157e-15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.75812564907268</v>
       </c>
     </row>
     <row r="9">
@@ -434,7 +538,19 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>1.961360277494468e-06</v>
+        <v>4.394809526351679e-06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.723176849766903e-07</v>
+      </c>
+      <c r="D9" t="n">
+        <v>443.0792129004427</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>73.84653548340712</v>
       </c>
     </row>
     <row r="10">
@@ -442,7 +558,19 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>6.035323209123339e-06</v>
+        <v>7.20963821976893e-06</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.137193932958447e-07</v>
+      </c>
+      <c r="D10" t="n">
+        <v>185.6672284393115</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30.94453807321858</v>
       </c>
     </row>
     <row r="11">
@@ -450,7 +578,19 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>6.239215576169961e-06</v>
+        <v>6.828129571055143e-06</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.310667743613459e-07</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110.2619251081217</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.37698751802028</v>
       </c>
     </row>
     <row r="12">
@@ -458,7 +598,19 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>2.893881103440831e-06</v>
+        <v>4.779603030487158e-06</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.879128011493438e-07</v>
+      </c>
+      <c r="D12" t="n">
+        <v>266.5951309394287</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>44.43252182323811</v>
       </c>
     </row>
     <row r="13">
@@ -466,7 +618,19 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>2.123739697373204e-06</v>
+        <v>4.551499185979907e-06</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.760840497667118e-07</v>
+      </c>
+      <c r="D13" t="n">
+        <v>468.2174893537408</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>78.03624822562347</v>
       </c>
     </row>
     <row r="14">
@@ -474,7 +638,19 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>5.9791285561316e-06</v>
+        <v>6.443096704531504e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.023428092475073e-07</v>
+      </c>
+      <c r="D14" t="n">
+        <v>68.29672159959247</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9.134915046615788e-13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.38278693326541</v>
       </c>
     </row>
     <row r="15">
@@ -482,7 +658,19 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>9.668466167806032e-06</v>
+        <v>9.844171025098483e-06</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.505617610425587e-07</v>
+      </c>
+      <c r="D15" t="n">
+        <v>18.32754787730051</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.005463707451731081</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.054591312883418</v>
       </c>
     </row>
     <row r="16">
@@ -490,7 +678,19 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>8.173387571845846e-06</v>
+        <v>8.64603529398419e-06</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.359390250483628e-07</v>
+      </c>
+      <c r="D16" t="n">
+        <v>84.21381186811645</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.440892098500626e-16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.03563531135274</v>
       </c>
     </row>
     <row r="17">
@@ -498,7 +698,19 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>7.288425046534852e-06</v>
+        <v>7.382688773484436e-06</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.266044415665852e-07</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21.9692696610338</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001226497078556044</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.661544943505632</v>
       </c>
     </row>
     <row r="18">
@@ -506,7 +718,19 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>7.997997969901966e-06</v>
+        <v>8.226555310773875e-06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.45246128326143e-07</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.91693815519956</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.009593405531966415</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.81948969253326</v>
       </c>
     </row>
     <row r="19">
@@ -514,7 +738,19 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>3.888565309255143e-06</v>
+        <v>5.921141379116635e-06</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.190444322641714e-07</v>
+      </c>
+      <c r="D19" t="n">
+        <v>241.8034831462646</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40.30058052437744</v>
       </c>
     </row>
     <row r="20">
@@ -522,7 +758,19 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>7.965276103422138e-06</v>
+        <v>8.27609705521603e-06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.682024834512244e-07</v>
+      </c>
+      <c r="D20" t="n">
+        <v>51.57468778759753</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.270559962269658e-09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.595781297932922</v>
       </c>
     </row>
     <row r="21">
@@ -530,7 +778,19 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>7.374489179827583e-06</v>
+        <v>7.789501007014715e-06</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.763962298892113e-07</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64.44928536954683</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.58852963905565e-12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.74154756159114</v>
       </c>
     </row>
     <row r="22">
@@ -538,7 +798,19 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>6.359184023306504e-06</v>
+        <v>8.067388093189967e-06</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.125054810896165e-07</v>
+      </c>
+      <c r="D22" t="n">
+        <v>135.1019250590837</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22.51698750984728</v>
       </c>
     </row>
     <row r="23">
@@ -546,7 +818,19 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>1.320550072520139e-05</v>
+        <v>1.388846980740108e-05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.208112838404696e-07</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.21228891893102</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0003118895291479573</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.202048153155171</v>
       </c>
     </row>
     <row r="24">
@@ -554,7 +838,19 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>1.469867935505732e-05</v>
+        <v>1.688596207052545e-05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.231068862402694e-07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>38.11742346561349</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.065518001275301e-06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.352903910935582</v>
       </c>
     </row>
     <row r="25">
@@ -562,7 +858,19 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>2.92963668563995e-05</v>
+        <v>2.960140306487469e-05</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.299944792491615e-06</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.0794009121996</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0007703166160770714</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.846566818699934</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +878,19 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>2.410523313287075e-05</v>
+        <v>2.520225268758678e-05</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.109834690354228e-06</v>
+      </c>
+      <c r="D26" t="n">
+        <v>37.32696406636563</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.520426260670504e-06</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.221160677727606</v>
       </c>
     </row>
     <row r="27">
@@ -578,7 +898,19 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>2.376105013903877e-05</v>
+        <v>2.572637410277926e-05</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.145856515245339e-06</v>
+      </c>
+      <c r="D27" t="n">
+        <v>28.84735642090147</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.501953297499696e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.807892736816911</v>
       </c>
     </row>
     <row r="28">
@@ -586,7 +918,19 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>2.804993903541899e-05</v>
+        <v>2.808854862001776e-05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.249737356676956e-06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8.760287670921318</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1875148938031908</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.460047945153553</v>
       </c>
     </row>
     <row r="29">
@@ -594,7 +938,19 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>1.718029715388464e-05</v>
+        <v>2.24077435121928e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.095950654036975e-06</v>
+      </c>
+      <c r="D29" t="n">
+        <v>58.65496239308433</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.440170784496104e-11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.775827065514054</v>
       </c>
     </row>
     <row r="30">
@@ -602,7 +958,19 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>2.96210564838042e-05</v>
+        <v>3.030902165590079e-05</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.267569564760745e-06</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.88434607737409</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.183380504810039e-06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.314057679562349</v>
       </c>
     </row>
     <row r="31">
@@ -610,7 +978,19 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>1.777973469634863e-05</v>
+        <v>2.203698186426292e-05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.054101685007267e-06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>95.9012153642802</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15.9835358940467</v>
       </c>
     </row>
     <row r="32">
@@ -618,7 +998,19 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>2.001370622461035e-05</v>
+        <v>2.225563925974938e-05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.063227980366479e-06</v>
+      </c>
+      <c r="D32" t="n">
+        <v>67.12788668160132</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.584732345349948e-12</v>
+      </c>
+      <c r="F32" t="n">
+        <v>11.18798111360022</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +1018,19 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>2.5677906036867e-05</v>
+        <v>2.772700043341617e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.230501526190871e-06</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27.28215315787498</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0001282014764570905</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.547025526312496</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +1038,19 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>2.730748974313757e-05</v>
+        <v>2.70553071026258e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.146838297729809e-06</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.57848111330015</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.07206068638064467</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.929746852216691</v>
       </c>
     </row>
     <row r="35">
@@ -642,7 +1058,19 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>2.694776429965205e-05</v>
+        <v>2.807970418022444e-05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.22924353035589e-06</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.76886614212692</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.09578801503370971</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.794811023687819</v>
       </c>
     </row>
     <row r="36">
@@ -650,7 +1078,19 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>2.650066015045447e-05</v>
+        <v>2.722761858763421e-05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.142708082436858e-06</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34.9413454472085</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.423741915227097e-06</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.823557574534751</v>
       </c>
     </row>
     <row r="37">
@@ -658,7 +1098,19 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>2.469228565839286e-05</v>
+        <v>2.567713493827408e-05</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.044678394432919e-06</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.15158336064867</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02798797512596918</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.358597226774779</v>
       </c>
     </row>
     <row r="38">
@@ -666,7 +1118,19 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>1.989211480820939e-05</v>
+        <v>2.054561913792185e-05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.233436343777079e-07</v>
+      </c>
+      <c r="D38" t="n">
+        <v>15.68793774739015</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01553063950166944</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.614656291231692</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +1138,19 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>2.029708263166839e-05</v>
+        <v>2.038454549602532e-05</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7.474646531110838e-07</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15.38548181624216</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01746136708656743</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.564246969373693</v>
       </c>
     </row>
     <row r="40">
@@ -682,7 +1158,19 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>1.066184417283086e-05</v>
+        <v>1.422867940376648e-05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.435666155732713e-07</v>
+      </c>
+      <c r="D40" t="n">
+        <v>159.2730518690054</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>26.54550864483423</v>
       </c>
     </row>
     <row r="41">
@@ -690,7 +1178,19 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>1.70752475634756e-05</v>
+        <v>1.744624491158698e-05</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.026630346138378e-07</v>
+      </c>
+      <c r="D41" t="n">
+        <v>23.90470169728469</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0005437612209207021</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.984116949547448</v>
       </c>
     </row>
     <row r="42">
@@ -698,7 +1198,19 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>2.605165874373247e-05</v>
+        <v>2.602272800455181e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.477357591886425e-07</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8.819856552319319</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1839655543530483</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.46997609205322</v>
       </c>
     </row>
     <row r="43">
@@ -706,7 +1218,19 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>2.536149962507842e-05</v>
+        <v>2.610269751972903e-05</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6.818588038820985e-07</v>
+      </c>
+      <c r="D43" t="n">
+        <v>51.79081216657541</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.054443615229218e-09</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.631802027762568</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +1238,19 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>2.529885268274179e-05</v>
+        <v>2.529129805842452e-05</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.267960809882539e-07</v>
+      </c>
+      <c r="D44" t="n">
+        <v>8.315927923768527</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2158591864779158</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.385987987294754</v>
       </c>
     </row>
     <row r="45">
@@ -722,7 +1258,19 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>2.262539047816623e-05</v>
+        <v>2.267349750620803e-05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.505713609181454e-07</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7.708954533810546</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2602108204565217</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.284825755635091</v>
       </c>
     </row>
     <row r="46">
@@ -730,7 +1278,19 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>2.350064683195504e-05</v>
+        <v>2.374485630848534e-05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.708464748426488e-07</v>
+      </c>
+      <c r="D46" t="n">
+        <v>13.9155598973141</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0305937617064711</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.319259982885683</v>
       </c>
     </row>
     <row r="47">
@@ -738,7 +1298,19 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>2.223660876945929e-05</v>
+        <v>2.228001763473367e-05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.213853716529587e-07</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.524607647180546</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9578432319058927</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.254101274530091</v>
       </c>
     </row>
     <row r="48">
@@ -746,7 +1318,19 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>1.579831035746933e-05</v>
+        <v>1.586272707129084e-05</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.996237819788661e-07</v>
+      </c>
+      <c r="D48" t="n">
+        <v>14.41435846065261</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.02533493847364998</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.402393076775435</v>
       </c>
     </row>
     <row r="49">
@@ -754,7 +1338,19 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>2.073605858544011e-05</v>
+        <v>2.075433781651459e-05</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.042272169053438e-07</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.240146881396019</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5134019984711751</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8733578135660031</v>
       </c>
     </row>
     <row r="50">
@@ -762,7 +1358,19 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>3.070533311596809e-05</v>
+        <v>3.107552073436537e-05</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7.274496806501692e-07</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14.5551035283362</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02401407407786837</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.425850588056032</v>
       </c>
     </row>
     <row r="51">
@@ -770,7 +1378,19 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>4.526958004312976e-05</v>
+        <v>4.546804444489276e-05</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.055739999406045e-06</v>
+      </c>
+      <c r="D51" t="n">
+        <v>16.67019664273066</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0105748898212894</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.778366107121776</v>
       </c>
     </row>
     <row r="52">
@@ -778,7 +1398,19 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>6.129206854088127e-05</v>
+        <v>6.133894136077053e-05</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.351397723330247e-06</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.968388641895841</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9225827986897054</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.3280647736493068</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +1418,19 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001288353167942618</v>
+        <v>0.0001294005728590136</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.927497742286042e-06</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.962795065075202</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.2408417300436744</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.327132510845867</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +1438,19 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>0.000218447744122212</v>
+        <v>0.0002190505735090943</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.776253211927552e-06</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.044684651992696</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9155433960314447</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3407807753321161</v>
       </c>
     </row>
     <row r="55">
@@ -802,7 +1458,19 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006022459317900239</v>
+        <v>0.0006046543598615645</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.319018529122246e-05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10.6941564344711</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.09830145745791929</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.782359405745183</v>
       </c>
     </row>
     <row r="56">
@@ -810,7 +1478,19 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009718443658662733</v>
+        <v>0.0009737335620607875</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.065586454479572e-05</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.166134013739055</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5226887698880514</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8610223356231758</v>
       </c>
     </row>
     <row r="57">
@@ -818,7 +1498,19 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001073339593945906</v>
+        <v>0.001074998766168235</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.232108279613249e-05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.394397681781482</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6234649582428209</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7323996136302471</v>
       </c>
     </row>
     <row r="58">
@@ -826,7 +1518,19 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.000871875383190847</v>
+        <v>0.0008747589732324203</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.836315085474593e-05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.858836838963989</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2486288215756388</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.309806139827332</v>
       </c>
     </row>
     <row r="59">
@@ -834,7 +1538,19 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0004458745976096816</v>
+        <v>0.0004468438714731958</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9.388148611223297e-06</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.406818099912459</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3791927187321882</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.067803016652076</v>
       </c>
     </row>
     <row r="60">
@@ -842,7 +1558,19 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003441448167541199</v>
+        <v>0.0003448914131889117</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.266222047356527e-06</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.166318790694637</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3057397685781247</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.194386465115773</v>
       </c>
     </row>
     <row r="61">
@@ -850,7 +1578,19 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0004371287495455948</v>
+        <v>0.0004389836952927699</v>
+      </c>
+      <c r="C61" t="n">
+        <v>9.137993554916692e-06</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.11176145301277</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1200237189561074</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.685293575502128</v>
       </c>
     </row>
     <row r="62">
@@ -858,7 +1598,19 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001943776202467755</v>
+        <v>0.0001950164264695323</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.102911605272888e-06</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7.369083785328139</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2880584245038913</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.228180630888023</v>
       </c>
     </row>
     <row r="63">
@@ -866,7 +1618,19 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0001385950264473472</v>
+        <v>0.0001387808487904896</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.868010365495899e-06</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.185711005812951</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.785203164456604</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5309518343021585</v>
       </c>
     </row>
     <row r="64">
@@ -874,7 +1638,19 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>8.001916752918545e-05</v>
+        <v>8.021951649532607e-05</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.699022864435908e-06</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.418857570922349</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4913176072903349</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9031429284870581</v>
       </c>
     </row>
     <row r="65">
@@ -882,7 +1658,19 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>4.270101362837352e-05</v>
+        <v>4.27692793148761e-05</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9.344031495171508e-07</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.392640476018308</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6237006189181631</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7321067460030513</v>
       </c>
     </row>
     <row r="66">
@@ -890,7 +1678,19 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>3.315734532463929e-05</v>
+        <v>3.322875723047233e-05</v>
+      </c>
+      <c r="C66" t="n">
+        <v>8.92121868192345e-07</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13.77687813536582</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.03223032901042611</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.296146355894304</v>
       </c>
     </row>
     <row r="67">
@@ -898,7 +1698,19 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>3.273786505219223e-05</v>
+        <v>3.25473612210195e-05</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.173860363068893e-06</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.589375219934292</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5974480758633516</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.7648958699890486</v>
       </c>
     </row>
     <row r="68">
@@ -906,7 +1718,19 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>3.890676019419907e-05</v>
+        <v>3.872607637415161e-05</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.478449618095899e-06</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5.629057829532095</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4659975562668114</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9381763049220159</v>
       </c>
     </row>
     <row r="69">
@@ -914,7 +1738,19 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>5.528795007233255e-05</v>
+        <v>5.554043868670901e-05</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.328192572125552e-06</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10.95931192381604</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.08964211600181637</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.826551987302673</v>
       </c>
     </row>
     <row r="70">
@@ -922,7 +1758,19 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>5.101696516128444e-05</v>
+        <v>5.093088337483514e-05</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.967421050907555e-06</v>
+      </c>
+      <c r="D70" t="n">
+        <v>23.32178695488024</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0006955652833502413</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.88696449248004</v>
       </c>
     </row>
     <row r="71">
@@ -930,7 +1778,19 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001027174733463903</v>
+        <v>0.000103427763474275</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.893138610251621e-06</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.931933907865679</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.3271878446689905</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.155322317977613</v>
       </c>
     </row>
     <row r="72">
@@ -938,7 +1798,19 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0001552222413797424</v>
+        <v>0.0001556592850925802</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5.718631283534737e-06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>26.55545741845459</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0001753755963375125</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.425909569742431</v>
       </c>
     </row>
     <row r="73">
@@ -946,7 +1818,19 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003827488720841487</v>
+        <v>0.0003830922333231627</v>
+      </c>
+      <c r="C73" t="n">
+        <v>8.67953797735425e-06</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.852326255540758</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.3347202720520426</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.14205437592346</v>
       </c>
     </row>
     <row r="74">
@@ -954,7 +1838,19 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0009789867454774032</v>
+        <v>0.0009808683569417732</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.175690339781741e-05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8.379551580068188</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.2115938759691597</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.396591930011365</v>
       </c>
     </row>
     <row r="75">
@@ -962,7 +1858,19 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0009658942584675315</v>
+        <v>0.0009662527948512235</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.153643555872046e-05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.896908444361586</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5571018955623166</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.8161514073935976</v>
       </c>
     </row>
     <row r="76">
@@ -970,7 +1878,19 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005210552242839853</v>
+        <v>0.0005206626010852295</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.273324225006897e-05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.526351869221355</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8655068923648908</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.4210586448702259</v>
       </c>
     </row>
     <row r="77">
@@ -978,7 +1898,19 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002769466540044709</v>
+        <v>0.0002769580670871587</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.724203681805539e-06</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.201924984949661</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1625363706312535</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.533654164158277</v>
       </c>
     </row>
     <row r="78">
@@ -986,7 +1918,19 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001368519721526851</v>
+        <v>0.0001375758883200647</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.882281158678076e-06</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.885442349233864</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.2466168392950876</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.314240391538977</v>
       </c>
     </row>
     <row r="79">
@@ -994,7 +1938,19 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001324124388577343</v>
+        <v>0.0001338686461328337</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.346693384677245e-06</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.886240626251818</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.4360535195856426</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9810401043753031</v>
       </c>
     </row>
     <row r="80">
@@ -1002,7 +1958,19 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>8.451444875931435e-05</v>
+        <v>8.715233431720999e-05</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.799886659509857e-06</v>
+      </c>
+      <c r="D80" t="n">
+        <v>22.09351573901765</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0011645192869979</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.682252623169608</v>
       </c>
     </row>
     <row r="81">
@@ -1010,7 +1978,19 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>8.439614856837556e-05</v>
+        <v>8.598905842122311e-05</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.094944896973134e-06</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9.991234936853045</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.1250216209307912</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.665205822808841</v>
       </c>
     </row>
     <row r="82">
@@ -1018,7 +1998,19 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>5.595391013118202e-05</v>
+        <v>5.561181963743761e-05</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.090005374149964e-06</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15.43845698462354</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01710736278472669</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.573076164103924</v>
       </c>
     </row>
     <row r="83">
@@ -1026,7 +2018,19 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>6.556748934161952e-05</v>
+        <v>6.527588292924321e-05</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.018794666071144e-06</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.0354610845399</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4192294599555966</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.00591018075665</v>
       </c>
     </row>
     <row r="84">
@@ -1034,7 +2038,19 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001385945323484861</v>
+        <v>0.0001392833339447867</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.383939104071037e-06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.747573258359087</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4520528256430966</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9579288763931811</v>
       </c>
     </row>
     <row r="85">
@@ -1042,7 +2058,19 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>9.323432932105763e-05</v>
+        <v>9.322583464414208e-05</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.169031320107706e-06</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.187817888468834</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.784931380904586</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5313029814114724</v>
       </c>
     </row>
     <row r="86">
@@ -1050,7 +2078,19 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>4.299125327320845e-05</v>
+        <v>4.333194813704498e-05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.080662044477772e-06</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7.75183318588504</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.2568542829050747</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.291972197647507</v>
       </c>
     </row>
     <row r="87">
@@ -1058,7 +2098,19 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>3.531243251846407e-05</v>
+        <v>3.557860740062252e-05</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8.830602475563784e-07</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.788358240161643</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.340864066980042</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.131393040026941</v>
       </c>
     </row>
     <row r="88">
@@ -1066,7 +2118,19 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>3.413758243316991e-05</v>
+        <v>3.424008279638287e-05</v>
+      </c>
+      <c r="C88" t="n">
+        <v>7.775793818430726e-07</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7.458208268258606</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2805406318895765</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.243034711376434</v>
       </c>
     </row>
     <row r="89">
@@ -1074,7 +2138,19 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>4.271187168223433e-05</v>
+        <v>4.308642892611744e-05</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9.904832916831879e-07</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.493609751863289</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.2775971803307524</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.248934958643882</v>
       </c>
     </row>
     <row r="90">
@@ -1082,7 +2158,19 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>7.759131465864274e-05</v>
+        <v>7.792729020815657e-05</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.706518099170203e-06</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.57327641466162</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1990368103357937</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.428879402443603</v>
       </c>
     </row>
     <row r="91">
@@ -1090,7 +2178,19 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001795183880911996</v>
+        <v>0.0001798493733193594</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.814262303407232e-06</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5.42982875985292</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4899780948163325</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9049714599754867</v>
       </c>
     </row>
     <row r="92">
@@ -1098,7 +2198,19 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0002004649633959668</v>
+        <v>0.0002006496375371326</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.219699820836634e-06</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.911244065714446</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9276776997322211</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.3185406776190743</v>
       </c>
     </row>
     <row r="93">
@@ -1106,7 +2218,19 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002370963943513512</v>
+        <v>0.0002381370547310991</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.006109257288041e-06</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9.67034794415714</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1392385281602951</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.611724657359523</v>
       </c>
     </row>
     <row r="94">
@@ -1114,7 +2238,19 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002449832790607047</v>
+        <v>0.0002453511738298927</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.322829396238277e-06</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.803836397266667</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8330339862969161</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.4673060662111112</v>
       </c>
     </row>
     <row r="95">
@@ -1122,7 +2258,19 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0002169501297811382</v>
+        <v>0.0002172518033524296</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.425806018208372e-06</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.99122510799739</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9205038555432565</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.3318708513328983</v>
       </c>
     </row>
     <row r="96">
@@ -1130,7 +2278,19 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001912601882244941</v>
+        <v>0.0001915590072806256</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.80523756239049e-06</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.314845655822056</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6341512284396156</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7191409426370093</v>
       </c>
     </row>
     <row r="97">
@@ -1138,7 +2298,19 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001441785135988764</v>
+        <v>0.0001442483649700103</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.557757922627509e-06</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.336369232885036</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.886312310084298</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.389394872147506</v>
       </c>
     </row>
     <row r="98">
@@ -1146,7 +2318,19 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001334825102000978</v>
+        <v>0.0001332809966878894</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.184231908220759e-06</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.214852048161348</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.898916246958366</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.3691420080268914</v>
       </c>
     </row>
     <row r="99">
@@ -1154,7 +2338,19 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001258037341998396</v>
+        <v>0.0001263369079103772</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.802512745244661e-06</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.060317660191877</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.3153050832939674</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.176719610031979</v>
       </c>
     </row>
     <row r="100">
@@ -1162,7 +2358,19 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001227848816057833</v>
+        <v>0.0001231110166040797</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.609745572829193e-06</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.962598398108747</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.8135262879027436</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.4937663996847911</v>
       </c>
     </row>
     <row r="101">
@@ -1170,7 +2378,19 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001223749399403282</v>
+        <v>0.0001231544711893983</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.528400856858665e-06</v>
+      </c>
+      <c r="D101" t="n">
+        <v>12.12600699547555</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.05921606060279372</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.021001165912591</v>
       </c>
     </row>
     <row r="102">
@@ -1178,7 +2398,19 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001223374621735687</v>
+        <v>0.0001227304533652138</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.435083172430425e-06</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.283013476610772</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5080601464917884</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.8805022461017953</v>
       </c>
     </row>
     <row r="103">
@@ -1186,7 +2418,19 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001444873689770258</v>
+        <v>0.0001450148481361312</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.840044077092883e-06</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6.057585977503066</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.4167703012508599</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.009597662917178</v>
       </c>
     </row>
     <row r="104">
@@ -1194,7 +2438,19 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001926576015533305</v>
+        <v>0.0001937914816887638</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.783286438271172e-06</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9.316134286583877</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1565639108745144</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.552689047763979</v>
       </c>
     </row>
     <row r="105">
@@ -1202,7 +2458,19 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003147221125884954</v>
+        <v>0.0003162879870544486</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.072550205529118e-06</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.758863621237738</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.2563072513529923</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.293143936872956</v>
       </c>
     </row>
     <row r="106">
@@ -1210,7 +2478,19 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004805749164222165</v>
+        <v>0.0004820410295866025</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9.333343780742948e-06</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.90468845049962</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5560945030989106</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.81744807508327</v>
       </c>
     </row>
     <row r="107">
@@ -1218,7 +2498,19 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0006368485258955954</v>
+        <v>0.0006398593094887449</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.230679390610435e-05</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.279101918054007</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.2958055078518751</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.213183653009001</v>
       </c>
     </row>
     <row r="108">
@@ -1226,7 +2518,19 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>0.000844834271801415</v>
+        <v>0.0008462074389823817</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.628702668817276e-05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.625895924019267</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8541203911167548</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.4376493206698778</v>
       </c>
     </row>
     <row r="109">
@@ -1234,7 +2538,19 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001055894882181671</v>
+        <v>0.001061047106453586</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.023608383010174e-05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.42128902821691</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.2836361177956863</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.236881504702818</v>
       </c>
     </row>
     <row r="110">
@@ -1242,7 +2558,19 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001143210574686954</v>
+        <v>0.001149799195397986</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.202800618321946e-05</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.589977137805581</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1979841744186571</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.43166285630093</v>
       </c>
     </row>
     <row r="111">
@@ -1250,7 +2578,19 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001423839457477211</v>
+        <v>0.001431237969595518</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.724881763477783e-05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.582879339107695</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.2702821210412809</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.263813223184616</v>
       </c>
     </row>
     <row r="112">
@@ -1258,7 +2598,19 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001742759978942641</v>
+        <v>0.00174813085888477</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.323369863344547e-05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.570748451714908</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5999210059953637</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.7617914086191514</v>
       </c>
     </row>
     <row r="113">
@@ -1266,7 +2618,19 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001764667880450859</v>
+        <v>0.001771541211480417</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.378406308376588e-05</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.99157194048975</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.424134862750054</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9985953234149583</v>
       </c>
     </row>
     <row r="114">
@@ -1274,7 +2638,19 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001974907746975074</v>
+        <v>0.001979424139827958</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.761917544908861e-05</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.44335039213289</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.7514907909774244</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.5738917320221484</v>
       </c>
     </row>
     <row r="115">
@@ -1282,7 +2658,19 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002016266737599498</v>
+        <v>0.002021135191671633</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.840701931400607e-05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.557760482463639</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.7362697324628635</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5929600804106064</v>
       </c>
     </row>
     <row r="116">
@@ -1290,7 +2678,19 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>0.002005245600512965</v>
+        <v>0.002011091814688091</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.824350553594682e-05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.390758266393518</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6239530645183025</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.7317930443989197</v>
       </c>
     </row>
     <row r="117">
@@ -1298,7 +2698,19 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001971210863132951</v>
+        <v>0.001977269908658413</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.761831521160872e-05</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.567961660950746</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6002912357634405</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.761326943491791</v>
       </c>
     </row>
     <row r="118">
@@ -1306,7 +2718,19 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001978059640727892</v>
+        <v>0.001986072175938409</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.78910343243818e-05</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.499824350804517</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3695846530947109</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.08330405846742</v>
       </c>
     </row>
     <row r="119">
@@ -1314,7 +2738,19 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001874617641546109</v>
+        <v>0.001881007013957799</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.573833436693299e-05</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.052919272932503</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5370439842444752</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.8421532121554173</v>
       </c>
     </row>
     <row r="120">
@@ -1322,7 +2758,19 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001825370401622413</v>
+        <v>0.001829753648323939</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.482243530605119e-05</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.548246975800245</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.7375399753181078</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.5913744959667075</v>
       </c>
     </row>
     <row r="121">
@@ -1330,7 +2778,19 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001498947625008347</v>
+        <v>0.001502137165370078</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.858028434190234e-05</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.173423327071238</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7867867850484749</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.5289038878452064</v>
       </c>
     </row>
     <row r="122">
@@ -1338,7 +2798,19 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001401058079874097</v>
+        <v>0.001407708235829368</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.691194347797443e-05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.616537889313384</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.2675637171254424</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.269422981552231</v>
       </c>
     </row>
     <row r="123">
@@ -1346,7 +2818,19 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001176551635090746</v>
+        <v>0.001181599228088058</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.250607201756759e-05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.318420652723503</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.3884816184335218</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.05307010878725</v>
       </c>
     </row>
     <row r="124">
@@ -1354,7 +2838,19 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0009114510476771558</v>
+        <v>0.0009133913166140859</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.737736819487153e-05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.099231722566774</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.796293147467322</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.5165386204277956</v>
       </c>
     </row>
     <row r="125">
@@ -1362,7 +2858,19 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0008337511812037004</v>
+        <v>0.0008364668501409892</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.606161838847274e-05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.232273775111137</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5143860811906322</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.8720456291851896</v>
       </c>
     </row>
     <row r="126">
@@ -1370,7 +2878,19 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>0.000719789475113904</v>
+        <v>0.0007232700947350006</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.383420424427538e-05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.18797652598805</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.3038126914562287</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.197996087664675</v>
       </c>
     </row>
     <row r="127">
@@ -1378,7 +2898,19 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0006822048801367795</v>
+        <v>0.0006835563860915654</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.312600745090263e-05</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.024207236445041</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8058024915991849</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.5040345394075068</v>
       </c>
     </row>
     <row r="128">
@@ -1386,7 +2918,19 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>0.000685121995721635</v>
+        <v>0.0006863212692957096</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.316412530439351e-05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.711750805061071</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.8440573816102779</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.4519584675101786</v>
       </c>
     </row>
     <row r="129">
@@ -1394,7 +2938,19 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0006733545674227446</v>
+        <v>0.0006757099075574383</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.308924541958368e-05</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.068287562768221</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5350850772715825</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8447145937947035</v>
       </c>
     </row>
     <row r="130">
@@ -1402,7 +2958,19 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0006542697652424947</v>
+        <v>0.0006556068005171646</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.298809645284199e-05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.913456962880208</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.8196279242138015</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.4855761604800347</v>
       </c>
     </row>
     <row r="131">
@@ -1410,7 +2978,19 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0006596121341310766</v>
+        <v>0.0006607932291908559</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.318246641646758e-05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.365230205090461</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.7618052393796506</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.5608717008484101</v>
       </c>
     </row>
     <row r="132">
@@ -1418,7 +2998,19 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0006734653702935373</v>
+        <v>0.000674981643639132</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.364654021209193e-05</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.856681029223763</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5623220860416771</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.8094468382039605</v>
       </c>
     </row>
     <row r="133">
@@ -1426,7 +3018,19 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0007451967761237579</v>
+        <v>0.0007466272188459959</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.483746579116382e-05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.502931560984419</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.7435796231384902</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.5838219268307365</v>
       </c>
     </row>
     <row r="134">
@@ -1434,7 +3038,19 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008086009701846558</v>
+        <v>0.0008094629211850784</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.60164538308386e-05</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.538885783549724</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.9568697897825288</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.2564809639249541</v>
       </c>
     </row>
     <row r="135">
@@ -1442,7 +3058,19 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008474569021199259</v>
+        <v>0.0008488352212820026</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.680297332850488e-05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.264047731131482</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.8938836906080445</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.3773412885219136</v>
       </c>
     </row>
     <row r="136">
@@ -1450,7 +3078,19 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000866557896232033</v>
+        <v>0.0008685088280229696</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.732611782251107e-05</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.380089415317599</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7598488451240604</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.5633482358862666</v>
       </c>
     </row>
     <row r="137">
@@ -1458,7 +3098,19 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008390770881256244</v>
+        <v>0.0008408012572451174</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.667930283652349e-05</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.803223544411265</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.8331080947653869</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.4672039240685442</v>
       </c>
     </row>
     <row r="138">
@@ -1466,7 +3118,19 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0008081866526722228</v>
+        <v>0.0008103432690335011</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.615402078664718e-05</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.062139767658523</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5358683224394523</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.8436899612764205</v>
       </c>
     </row>
     <row r="139">
@@ -1474,7 +3138,19 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0006894058581242342</v>
+        <v>0.0006907055457459265</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.361427314063807e-05</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.743517755800046</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.8402805671258226</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.4572529593000077</v>
       </c>
     </row>
     <row r="140">
@@ -1482,7 +3158,19 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0004312129234573064</v>
+        <v>0.0004316352618338698</v>
+      </c>
+      <c r="C140" t="n">
+        <v>8.512808553345645e-06</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.727178249408297</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.9430038308400803</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.2878630415680495</v>
       </c>
     </row>
     <row r="141">
@@ -1490,7 +3178,19 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003652019522329475</v>
+        <v>0.0003662957643438842</v>
+      </c>
+      <c r="C141" t="n">
+        <v>7.332010352355627e-06</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5.14082534635169</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5258824087916933</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.8568042243919484</v>
       </c>
     </row>
     <row r="142">
@@ -1498,7 +3198,19 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002914015963893912</v>
+        <v>0.0002919643501180337</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.738734035279843e-06</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.245317812649455</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.7774865778884986</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.5408863021082425</v>
       </c>
     </row>
     <row r="143">
@@ -1506,7 +3218,19 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002268911616562901</v>
+        <v>0.0002280112241868312</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.567759237708391e-06</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.763940468515822</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.2559128054497023</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.29399007808597</v>
       </c>
     </row>
     <row r="144">
@@ -1514,7 +3238,19 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002139376329475255</v>
+        <v>0.0002147681183928761</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.36721133507177e-06</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.939411549212691</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.551607262591713</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.8232352582021152</v>
       </c>
     </row>
     <row r="145">
@@ -1522,7 +3258,19 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0002036883927153059</v>
+        <v>0.0002042829555939647</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.643206064863052e-06</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.108738279543875</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.9094310857238179</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.3514563799239792</v>
       </c>
     </row>
     <row r="146">
@@ -1530,7 +3278,19 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002161328451758728</v>
+        <v>0.0002162229481700898</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.741493454814249e-06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.90177770972358</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.9285066862106416</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.3169629516205967</v>
       </c>
     </row>
     <row r="147">
@@ -1538,7 +3298,19 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.000206285357376305</v>
+        <v>0.0002068184422847379</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.829524594017501e-06</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.647234204448852</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.3547055465068805</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.107872367408142</v>
       </c>
     </row>
     <row r="148">
@@ -1546,7 +3318,19 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0002064440117992378</v>
+        <v>0.0002078541094425174</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.019984807707316e-06</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13.91570926001039</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.03059204226839829</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.319284876668398</v>
       </c>
     </row>
     <row r="149">
@@ -1554,7 +3338,19 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0002049864915740674</v>
+        <v>0.0002050281610309663</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.916954117636195e-06</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.676229788364948</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.7203943907646406</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.6127049647274914</v>
       </c>
     </row>
     <row r="150">
@@ -1562,7 +3358,19 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0002031074557159452</v>
+        <v>0.0002030619937503529</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.868345614186348e-06</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.83590342024857</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.441821265327321</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9726505700414284</v>
       </c>
     </row>
     <row r="151">
@@ -1570,7 +3378,19 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001989811989397691</v>
+        <v>0.0001990289837410926</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.795593830505559e-06</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.620008133416547</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.951128195008314</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.2700013555694246</v>
       </c>
     </row>
     <row r="152">
@@ -1578,7 +3398,19 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001953992034542433</v>
+        <v>0.0001965730745958829</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.706506762140481e-06</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.45840517618375</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.07520082829308361</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.909734196030626</v>
       </c>
     </row>
     <row r="153">
@@ -1586,7 +3418,19 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001914397078165216</v>
+        <v>0.0001916508289595018</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.664993736713276e-06</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.087978484881761</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.9820562308043592</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1813297474802935</v>
       </c>
     </row>
     <row r="154">
@@ -1594,7 +3438,19 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001817226607911086</v>
+        <v>0.0001829927640963397</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.452834500842357e-06</v>
+      </c>
+      <c r="D154" t="n">
+        <v>14.55719988372483</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.02399490461690956</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.426199980620805</v>
       </c>
     </row>
     <row r="155">
@@ -1602,7 +3458,19 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001805866519083838</v>
+        <v>0.000181683854077587</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.497629071174973e-06</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.32871605419181</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1559177498604165</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.554786009031968</v>
       </c>
     </row>
     <row r="156">
@@ -1610,7 +3478,19 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001789945669945443</v>
+        <v>0.0001790697068121807</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.42513026748024e-06</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.925336087562567</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.327807345503578</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.154222681260428</v>
       </c>
     </row>
     <row r="157">
@@ -1618,7 +3498,19 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001777555964545485</v>
+        <v>0.0001779370077214488</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.293562921652906e-06</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.898401750946047</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.6904232496060401</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.6497336251576745</v>
       </c>
     </row>
     <row r="158">
@@ -1626,7 +3518,19 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001609660622557238</v>
+        <v>0.0001620965037231882</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3.786033815228601e-06</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.145856197671167</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.1655398623155746</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.524309366278528</v>
       </c>
     </row>
     <row r="159">
@@ -1634,7 +3538,19 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001397595285128456</v>
+        <v>0.0001397398317158744</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.480181764200708e-06</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7.082677038441705</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.3132689489367885</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.180446173073618</v>
       </c>
     </row>
     <row r="160">
@@ -1642,7 +3558,19 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0001290872312869088</v>
+        <v>0.000129107446829315</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.015651567759199e-06</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.458706219261451</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.7494553040856615</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.5764510365435752</v>
       </c>
     </row>
     <row r="161">
@@ -1650,7 +3578,19 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001291653744195622</v>
+        <v>0.0001290759286426336</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.226710815101263e-06</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.108906899591698</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5299229086463022</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.851484483265283</v>
       </c>
     </row>
     <row r="162">
@@ -1658,7 +3598,19 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001571515463093675</v>
+        <v>0.0001575686609933313</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.5370363215148e-06</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.802299600163446</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.833219803246416</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.4670499333605744</v>
       </c>
     </row>
     <row r="163">
@@ -1666,7 +3618,19 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002749360034884834</v>
+        <v>0.000275549347873725</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.869725913955237e-06</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.643522395883766</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.3550749316641365</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.107253732647294</v>
       </c>
     </row>
     <row r="164">
@@ -1674,7 +3638,19 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003359612736464714</v>
+        <v>0.0003362646042557005</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.940617881348882e-06</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.327350866230942</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.9701281483033616</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.2212251443718237</v>
       </c>
     </row>
     <row r="165">
@@ -1682,7 +3658,19 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003594649109269527</v>
+        <v>0.0003598239063193993</v>
+      </c>
+      <c r="C165" t="n">
+        <v>7.381410132294448e-06</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.731553471871914</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.8417062975744765</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.4552589119786523</v>
       </c>
     </row>
     <row r="166">
@@ -1690,7 +3678,19 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0003640444513742953</v>
+        <v>0.000364104550060727</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7.506759617075946e-06</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.741991879897954</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.9418336003136661</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.2903319799829923</v>
       </c>
     </row>
     <row r="167">
@@ -1698,7 +3698,19 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003771601655646741</v>
+        <v>0.0003791450709357694</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7.966394157191476e-06</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8.504110290419018</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.2034464827647595</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.417351715069836</v>
       </c>
     </row>
     <row r="168">
@@ -1706,7 +3718,19 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0003790991252802869</v>
+        <v>0.0003793125980082193</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7.658890950928929e-06</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.562751988469581</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.9552177239157909</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.2604586647449301</v>
       </c>
     </row>
     <row r="169">
@@ -1714,7 +3738,19 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0003649499853037565</v>
+        <v>0.0003655277714574389</v>
+      </c>
+      <c r="C169" t="n">
+        <v>7.3414124910548e-06</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.544407193873411</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.8634650638448483</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.4240678656455685</v>
       </c>
     </row>
     <row r="170">
@@ -1722,7 +3758,19 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0003366816214288715</v>
+        <v>0.0003377546814192116</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.733708974450433e-06</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.263465029618533</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5104927844525995</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.8772441716030889</v>
       </c>
     </row>
     <row r="171">
@@ -1730,7 +3778,19 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002119773645689607</v>
+        <v>0.0002128813148060349</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.467849122144843e-06</v>
+      </c>
+      <c r="D171" t="n">
+        <v>9.128092483336726</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.166501364231867</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.521348747222788</v>
       </c>
     </row>
     <row r="172">
@@ -1738,7 +3798,19 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001387129036119234</v>
+        <v>0.0001394344148622871</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.862987449487615e-06</v>
+      </c>
+      <c r="D172" t="n">
+        <v>10.41962031914853</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.1080571749275652</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.736603386524755</v>
       </c>
     </row>
     <row r="173">
@@ -1746,7 +3818,19 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001272397058465611</v>
+        <v>0.0001275249432881744</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.682367495417188e-06</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.9636865418453</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.4272702322149845</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.9939477569742167</v>
       </c>
     </row>
     <row r="174">
@@ -1754,7 +3838,19 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001481517679762989</v>
+        <v>0.0001484719583263138</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.31092500868491e-06</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.437502631299107</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3760040663240138</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.072917105216518</v>
       </c>
     </row>
     <row r="175">
@@ -1762,7 +3858,19 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002037111819467493</v>
+        <v>0.0002040667138377015</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.198506164437656e-06</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.310179868228238</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.6347790200075292</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.7183633113713729</v>
       </c>
     </row>
     <row r="176">
@@ -1770,7 +3878,19 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002271316912302208</v>
+        <v>0.0002278296482422955</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.999086027000634e-06</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.647628844305894</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.4637963145808219</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.9412714740509823</v>
       </c>
     </row>
     <row r="177">
@@ -1778,7 +3898,19 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003448010330386897</v>
+        <v>0.0003451635777235652</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7.609097622309718e-06</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.076827486547121</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.7991442592921961</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.5128045810911868</v>
       </c>
     </row>
     <row r="178">
@@ -1786,7 +3918,19 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004670588069213693</v>
+        <v>0.0004712517346612022</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.012946378658953e-05</v>
+      </c>
+      <c r="D178" t="n">
+        <v>18.91717301703477</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.004305825850484002</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.152862169505795</v>
       </c>
     </row>
     <row r="179">
@@ -1794,7 +3938,19 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004799801918485403</v>
+        <v>0.0004804573454812908</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.071977995418797e-05</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.28674706487785</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.891529134130241</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.381124510812975</v>
       </c>
     </row>
     <row r="180">
@@ -1802,7 +3958,19 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0004628483169357849</v>
+        <v>0.000463858081182244</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.046213594944659e-05</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.394721452837754</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.4942712393743572</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.8991202421396256</v>
       </c>
     </row>
     <row r="181">
@@ -1810,7 +3978,19 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004151543514679851</v>
+        <v>0.0004151960683836621</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.636077653423128e-06</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.267237576579796</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.8935540396157464</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.3778729294299659</v>
       </c>
     </row>
     <row r="182">
@@ -1818,7 +3998,19 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0004163404121891179</v>
+        <v>0.0004200218501844982</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.993233601749229e-06</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.73737442585571</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0680907452670162</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.956229070975952</v>
       </c>
     </row>
     <row r="183">
@@ -1826,7 +4018,19 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003644461414374523</v>
+        <v>0.0003652758760035771</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9.123205378425899e-06</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.086125844080635</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.5328153122128858</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.8476876406801058</v>
       </c>
     </row>
     <row r="184">
@@ -1834,7 +4038,19 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003151254487094816</v>
+        <v>0.0003150891727546271</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8.536938144425957e-06</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8.358394553993726</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.2130043980480101</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.393065758998954</v>
       </c>
     </row>
     <row r="185">
@@ -1842,7 +4058,19 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002850712353346065</v>
+        <v>0.0002850529536901658</v>
+      </c>
+      <c r="C185" t="n">
+        <v>7.108916449319512e-06</v>
+      </c>
+      <c r="D185" t="n">
+        <v>10.33794341754227</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.111123070454754</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.722990569590378</v>
       </c>
     </row>
     <row r="186">
@@ -1850,7 +4078,19 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002940942465557945</v>
+        <v>0.0002956248552560816</v>
+      </c>
+      <c r="C186" t="n">
+        <v>7.426934328229481e-06</v>
+      </c>
+      <c r="D186" t="n">
+        <v>10.0244803298692</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.1236248780844812</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.670746721644867</v>
       </c>
     </row>
     <row r="187">
@@ -1858,7 +4098,19 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0002855207300389783</v>
+        <v>0.0002864662219924971</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6.583989943545082e-06</v>
+      </c>
+      <c r="D187" t="n">
+        <v>13.09762755524563</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.04151154564637538</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.182937925874272</v>
       </c>
     </row>
     <row r="188">
@@ -1866,7 +4118,19 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002796522559173199</v>
+        <v>0.0002803647854572081</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.698934919865954e-06</v>
+      </c>
+      <c r="D188" t="n">
+        <v>8.325996426910592</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.2151794851550068</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.387666071151765</v>
       </c>
     </row>
     <row r="189">
@@ -1874,7 +4138,19 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002655198600710696</v>
+        <v>0.0002680680678625299</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.5435766821492e-06</v>
+      </c>
+      <c r="D189" t="n">
+        <v>22.4013355457761</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.001023898213823093</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3.733555924296017</v>
       </c>
     </row>
     <row r="190">
@@ -1882,7 +4158,19 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002958691196635912</v>
+        <v>0.0002973743436815373</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.455812048871173e-06</v>
+      </c>
+      <c r="D190" t="n">
+        <v>10.26180677677846</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.114050968964592</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.710301129463077</v>
       </c>
     </row>
     <row r="191">
@@ -1890,7 +4178,19 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003466018464334008</v>
+        <v>0.0003474846291891404</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.566567153355162e-06</v>
+      </c>
+      <c r="D191" t="n">
+        <v>7.786232622935689</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.2541865535683561</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.297705437155948</v>
       </c>
     </row>
     <row r="192">
@@ -1898,7 +4198,19 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003873002494026581</v>
+        <v>0.0003892940111272025</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.32120934845505e-06</v>
+      </c>
+      <c r="D192" t="n">
+        <v>10.01494223974978</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.1240241780836027</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.669157039958296</v>
       </c>
     </row>
     <row r="193">
@@ -1906,7 +4218,19 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004419247155245991</v>
+        <v>0.0004440746151182087</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9.275535453718603e-06</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8.533108631303</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.2015878281490397</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.422184771883833</v>
       </c>
     </row>
     <row r="194">
@@ -1914,7 +4238,19 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.000516471060119375</v>
+        <v>0.0005190861261695287</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.075488388545052e-05</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.705245196206754</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.1376262335499752</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.617540866034459</v>
       </c>
     </row>
     <row r="195">
@@ -1922,7 +4258,19 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005814415648153475</v>
+        <v>0.0005834366647056836</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.209158418138225e-05</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6.913800512725722</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.3288925512900986</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.152300085454287</v>
       </c>
     </row>
     <row r="196">
@@ -1930,7 +4278,19 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005592934322793679</v>
+        <v>0.0005622966543584868</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.1425116942214e-05</v>
+      </c>
+      <c r="D196" t="n">
+        <v>10.84816524823833</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.09318395853781403</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.808027541373055</v>
       </c>
     </row>
     <row r="197">
@@ -1938,7 +4298,19 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005555958461882999</v>
+        <v>0.0005580478186950819</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.118089847504995e-05</v>
+      </c>
+      <c r="D197" t="n">
+        <v>8.522212378155508</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.2022845495460158</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.420368729692585</v>
       </c>
     </row>
     <row r="198">
@@ -1946,7 +4318,19 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0005046007580328247</v>
+        <v>0.000506154187142547</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.017692326466334e-05</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5.281241456645909</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.5082804223863038</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.8802069094409849</v>
       </c>
     </row>
     <row r="199">
@@ -1954,7 +4338,19 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004981410278815468</v>
+        <v>0.0005005069373819102</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9.964142927009998e-06</v>
+      </c>
+      <c r="D199" t="n">
+        <v>8.621359845283079</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.196018809156111</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.43689330754718</v>
       </c>
     </row>
     <row r="200">
@@ -1962,7 +4358,19 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004382549996045986</v>
+        <v>0.000440435204170001</v>
+      </c>
+      <c r="C200" t="n">
+        <v>8.792499045150276e-06</v>
+      </c>
+      <c r="D200" t="n">
+        <v>7.122726794476876</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.3096465591620152</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.187121132412813</v>
       </c>
     </row>
     <row r="201">
@@ -1970,7 +4378,19 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004229564274140551</v>
+        <v>0.0004248713907452952</v>
+      </c>
+      <c r="C201" t="n">
+        <v>8.403340206211424e-06</v>
+      </c>
+      <c r="D201" t="n">
+        <v>7.775686402277433</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.255002063668924</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.295947733712906</v>
       </c>
     </row>
     <row r="202">
@@ -1978,7 +4398,19 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0004105708464126901</v>
+        <v>0.000411703295394752</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8.127332620710767e-06</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4.659835095985277</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.5881210545637523</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.7766391826642128</v>
       </c>
     </row>
     <row r="203">
@@ -1986,7 +4418,19 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005261798247366901</v>
+        <v>0.0005273049881225226</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.071308447072799e-05</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.219864905886735</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.6469500805384893</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.7033108176477891</v>
       </c>
     </row>
     <row r="204">
@@ -1994,7 +4438,19 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0004600942207180629</v>
+        <v>0.0004621786746325852</v>
+      </c>
+      <c r="C204" t="n">
+        <v>9.038492994356237e-06</v>
+      </c>
+      <c r="D204" t="n">
+        <v>7.67127044835532</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.2631894554191759</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.278545074725887</v>
       </c>
     </row>
     <row r="205">
@@ -2002,7 +4458,19 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004834271689359118</v>
+        <v>0.0004844000779511617</v>
+      </c>
+      <c r="C205" t="n">
+        <v>9.988541113820008e-06</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.057038795951564</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.8016545746324931</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.5095064659919274</v>
       </c>
     </row>
     <row r="206">
@@ -2010,7 +4478,19 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0005305128762204295</v>
+        <v>0.0005334527453707682</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.056847893694425e-05</v>
+      </c>
+      <c r="D206" t="n">
+        <v>9.664556186517544</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.1395077150772266</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.610759364419591</v>
       </c>
     </row>
     <row r="207">
@@ -2018,7 +4498,19 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004412758043602654</v>
+        <v>0.0004419974278707417</v>
+      </c>
+      <c r="C207" t="n">
+        <v>9.15087691752568e-06</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.143609400694602</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.6572491980254926</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.6906015667824338</v>
       </c>
     </row>
     <row r="208">
@@ -2026,7 +4518,19 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004160783262916802</v>
+        <v>0.0004167766955063426</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8.677717835923475e-06</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.212967186921377</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.6478809509383214</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.7021611978202295</v>
       </c>
     </row>
     <row r="209">
@@ -2034,7 +4538,19 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003949700949087206</v>
+        <v>0.0003961946124989961</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8.272971457897206e-06</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.656355950273472</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.4627639364578439</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.9427259917122454</v>
       </c>
     </row>
     <row r="210">
@@ -2042,7 +4558,19 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003707882530102792</v>
+        <v>0.0003710643827974646</v>
+      </c>
+      <c r="C210" t="n">
+        <v>7.837211652430731e-06</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.297333044623156</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.8904241785555737</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.382888840770526</v>
       </c>
     </row>
     <row r="211">
@@ -2050,7 +4578,19 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003423478898992786</v>
+        <v>0.0003429853699194473</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.931499737504399e-06</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3.54344565512364</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.7381807564842168</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.59057427585394</v>
       </c>
     </row>
     <row r="212">
@@ -2058,7 +4598,19 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003699804987182565</v>
+        <v>0.0003713310268906452</v>
+      </c>
+      <c r="C212" t="n">
+        <v>7.450563200618885e-06</v>
+      </c>
+      <c r="D212" t="n">
+        <v>7.171409730825011</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.3052859527580667</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.195234955137502</v>
       </c>
     </row>
     <row r="213">
@@ -2066,7 +4618,19 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003461872808551358</v>
+        <v>0.0003464732070140565</v>
+      </c>
+      <c r="C213" t="n">
+        <v>7.225125451555055e-06</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.664655156515169</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.8496041538933637</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.4441091927525281</v>
       </c>
     </row>
     <row r="214">
@@ -2074,7 +4638,19 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004165208405860531</v>
+        <v>0.0004183316899333089</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8.341929386671233e-06</v>
+      </c>
+      <c r="D214" t="n">
+        <v>8.250686897186064</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.2203066655729227</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.375114482864344</v>
       </c>
     </row>
     <row r="215">
@@ -2082,7 +4658,19 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002892534983141351</v>
+        <v>0.0002909665913872423</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.803833097965545e-06</v>
+      </c>
+      <c r="D215" t="n">
+        <v>10.81594500103952</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.09423418092644997</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.802657500173253</v>
       </c>
     </row>
     <row r="216">
@@ -2090,7 +4678,19 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.000178520811335832</v>
+        <v>0.0001792785224361388</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.666132570986651e-06</v>
+      </c>
+      <c r="D216" t="n">
+        <v>8.480166798925209</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.2049919422442197</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.413361133154202</v>
       </c>
     </row>
     <row r="217">
@@ -2098,7 +4698,19 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>7.40798340895787e-05</v>
+        <v>7.433129730588422e-05</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.632367201819071e-06</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9.283494883511992</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.1582510187221535</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.547249147251999</v>
       </c>
     </row>
     <row r="218">
@@ -2106,7 +4718,19 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>4.597481813241205e-05</v>
+        <v>4.610819175605662e-05</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.039832934851391e-06</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5.848219717872057</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.4404057818381266</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.9747032863120095</v>
       </c>
     </row>
     <row r="219">
@@ -2114,7 +4738,19 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>6.5670760754446e-05</v>
+        <v>6.600679267751098e-05</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.400238135550731e-06</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11.22493209741869</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.08166848062998699</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.870822016236448</v>
       </c>
     </row>
     <row r="220">
@@ -2122,7 +4758,19 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>4.064927538532535e-05</v>
+        <v>4.067142106318631e-05</v>
+      </c>
+      <c r="C220" t="n">
+        <v>8.959966989482871e-07</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.293259342319763</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.7712409779669105</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.5488765570532939</v>
       </c>
     </row>
     <row r="221">
@@ -2130,7 +4778,19 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>3.315762809320952e-05</v>
+        <v>3.336160208050953e-05</v>
+      </c>
+      <c r="C221" t="n">
+        <v>7.426922665420805e-07</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9.11535519887348</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.1671937588782151</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.519225866478913</v>
       </c>
     </row>
     <row r="222">
@@ -2138,7 +4798,19 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>2.825081002934037e-05</v>
+        <v>2.846836034369204e-05</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.158096185113073e-07</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9.623953869741424</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.1414076850936823</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.603992311623571</v>
       </c>
     </row>
     <row r="223">
@@ -2146,7 +4818,19 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>2.830921377669916e-05</v>
+        <v>2.888428828801166e-05</v>
+      </c>
+      <c r="C223" t="n">
+        <v>6.388779452579834e-07</v>
+      </c>
+      <c r="D223" t="n">
+        <v>22.24466370367335</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.001093252183009374</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3.707443950612225</v>
       </c>
     </row>
     <row r="224">
@@ -2154,7 +4838,19 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>4.160804661210956e-05</v>
+        <v>4.200250891735891e-05</v>
+      </c>
+      <c r="C224" t="n">
+        <v>8.877113421252918e-07</v>
+      </c>
+      <c r="D224" t="n">
+        <v>19.52304811882586</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.003365700612539491</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3.253841353137643</v>
       </c>
     </row>
     <row r="225">
@@ -2162,7 +4858,19 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>7.718410797539051e-05</v>
+        <v>7.750073473159954e-05</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.574312089536269e-06</v>
+      </c>
+      <c r="D225" t="n">
+        <v>7.774486343941842</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2550949933114179</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.295747723990307</v>
       </c>
     </row>
     <row r="226">
@@ -2170,7 +4878,19 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>8.641439401897561e-05</v>
+        <v>8.689896079358204e-05</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.766270182348756e-06</v>
+      </c>
+      <c r="D226" t="n">
+        <v>10.3989522092956</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.1088257308619112</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.733158701549266</v>
       </c>
     </row>
     <row r="227">
@@ -2178,7 +4898,19 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>7.597858872355886e-05</v>
+        <v>7.646760912553824e-05</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.533067002542522e-06</v>
+      </c>
+      <c r="D227" t="n">
+        <v>11.93109036022067</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.06352386808976684</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.988515060036779</v>
       </c>
     </row>
     <row r="228">
@@ -2186,7 +4918,19 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>6.769609625054196e-05</v>
+        <v>6.802539234021549e-05</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.395520515266049e-06</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9.229542112841731</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.161074368470482</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.538257018806955</v>
       </c>
     </row>
     <row r="229">
@@ -2194,7 +4938,19 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>6.977529402727302e-05</v>
+        <v>7.004473854099451e-05</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.485378667606552e-06</v>
+      </c>
+      <c r="D229" t="n">
+        <v>7.397532295503287</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.2856419802390107</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.232922049250548</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/p1/a0/a0Fit.xlsx
+++ b/legendre_out/CSV/analytically/p1/a0/a0Fit.xlsx
@@ -407,7 +407,7 @@
         <v>511.6216330933581</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.636192835285931e-107</v>
       </c>
       <c r="F2" t="n">
         <v>85.27027218222635</v>
@@ -427,7 +427,7 @@
         <v>424.9478602581632</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.206184719304164e-88</v>
       </c>
       <c r="F3" t="n">
         <v>70.82464337636054</v>
@@ -447,7 +447,7 @@
         <v>377.9736002393048</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.515320323105232e-78</v>
       </c>
       <c r="F4" t="n">
         <v>62.99560003988413</v>
@@ -467,7 +467,7 @@
         <v>84.04145571974469</v>
       </c>
       <c r="E5" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>5.214226206458741e-16</v>
       </c>
       <c r="F5" t="n">
         <v>14.00690928662411</v>
@@ -487,7 +487,7 @@
         <v>181.0430613356754</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.03735700722634e-36</v>
       </c>
       <c r="F6" t="n">
         <v>30.1738435559459</v>
@@ -507,7 +507,7 @@
         <v>315.9568642000144</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.108152260259313e-65</v>
       </c>
       <c r="F7" t="n">
         <v>52.65947736666907</v>
@@ -527,7 +527,7 @@
         <v>82.54875389443606</v>
       </c>
       <c r="E8" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.06202130348919e-15</v>
       </c>
       <c r="F8" t="n">
         <v>13.75812564907268</v>
@@ -547,7 +547,7 @@
         <v>443.0792129004427</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.514833150651406e-92</v>
       </c>
       <c r="F9" t="n">
         <v>73.84653548340712</v>
@@ -567,7 +567,7 @@
         <v>185.6672284393115</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.121337771458224e-37</v>
       </c>
       <c r="F10" t="n">
         <v>30.94453807321858</v>
@@ -587,7 +587,7 @@
         <v>110.2619251081217</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.796552793717546e-21</v>
       </c>
       <c r="F11" t="n">
         <v>18.37698751802028</v>
@@ -607,7 +607,7 @@
         <v>266.5951309394287</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.160735396399389e-54</v>
       </c>
       <c r="F12" t="n">
         <v>44.43252182323811</v>
@@ -627,7 +627,7 @@
         <v>468.2174893537408</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>5.880028728226099e-98</v>
       </c>
       <c r="F13" t="n">
         <v>78.03624822562347</v>
@@ -647,7 +647,7 @@
         <v>68.29672159959247</v>
       </c>
       <c r="E14" t="n">
-        <v>9.134915046615788e-13</v>
+        <v>9.134544416520024e-13</v>
       </c>
       <c r="F14" t="n">
         <v>11.38278693326541</v>
@@ -667,7 +667,7 @@
         <v>18.32754787730051</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005463707451731081</v>
+        <v>0.00546370745173105</v>
       </c>
       <c r="F15" t="n">
         <v>3.054591312883418</v>
@@ -687,7 +687,7 @@
         <v>84.21381186811645</v>
       </c>
       <c r="E16" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>4.802865945502604e-16</v>
       </c>
       <c r="F16" t="n">
         <v>14.03563531135274</v>
@@ -707,7 +707,7 @@
         <v>21.9692696610338</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001226497078556044</v>
+        <v>0.001226497078556062</v>
       </c>
       <c r="F17" t="n">
         <v>3.661544943505632</v>
@@ -727,7 +727,7 @@
         <v>16.91693815519956</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009593405531966415</v>
+        <v>0.009593405531966397</v>
       </c>
       <c r="F18" t="n">
         <v>2.81948969253326</v>
@@ -747,7 +747,7 @@
         <v>241.8034831462646</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.312383340815044e-49</v>
       </c>
       <c r="F19" t="n">
         <v>40.30058052437744</v>
@@ -767,7 +767,7 @@
         <v>51.57468778759753</v>
       </c>
       <c r="E20" t="n">
-        <v>2.270559962269658e-09</v>
+        <v>2.27055993171903e-09</v>
       </c>
       <c r="F20" t="n">
         <v>8.595781297932922</v>
@@ -787,7 +787,7 @@
         <v>64.44928536954683</v>
       </c>
       <c r="E21" t="n">
-        <v>5.58852963905565e-12</v>
+        <v>5.588553225500932e-12</v>
       </c>
       <c r="F21" t="n">
         <v>10.74154756159114</v>
@@ -807,7 +807,7 @@
         <v>135.1019250590837</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.081631316872657e-26</v>
       </c>
       <c r="F22" t="n">
         <v>22.51698750984728</v>
@@ -827,7 +827,7 @@
         <v>25.21228891893102</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003118895291479573</v>
+        <v>0.0003118895291479454</v>
       </c>
       <c r="F23" t="n">
         <v>4.202048153155171</v>
@@ -847,7 +847,7 @@
         <v>38.11742346561349</v>
       </c>
       <c r="E24" t="n">
-        <v>1.065518001275301e-06</v>
+        <v>1.065518001317876e-06</v>
       </c>
       <c r="F24" t="n">
         <v>6.352903910935582</v>
@@ -867,7 +867,7 @@
         <v>23.0794009121996</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0007703166160770714</v>
+        <v>0.000770316616077093</v>
       </c>
       <c r="F25" t="n">
         <v>3.846566818699934</v>
@@ -887,7 +887,7 @@
         <v>37.32696406636563</v>
       </c>
       <c r="E26" t="n">
-        <v>1.520426260670504e-06</v>
+        <v>1.520426260676696e-06</v>
       </c>
       <c r="F26" t="n">
         <v>6.221160677727606</v>
@@ -907,7 +907,7 @@
         <v>28.84735642090147</v>
       </c>
       <c r="E27" t="n">
-        <v>6.501953297499696e-05</v>
+        <v>6.501953297494954e-05</v>
       </c>
       <c r="F27" t="n">
         <v>4.807892736816911</v>
@@ -947,7 +947,7 @@
         <v>58.65496239308433</v>
       </c>
       <c r="E29" t="n">
-        <v>8.440170784496104e-11</v>
+        <v>8.440173314156362e-11</v>
       </c>
       <c r="F29" t="n">
         <v>9.775827065514054</v>
@@ -967,7 +967,7 @@
         <v>37.88434607737409</v>
       </c>
       <c r="E30" t="n">
-        <v>1.183380504810039e-06</v>
+        <v>1.183380504778985e-06</v>
       </c>
       <c r="F30" t="n">
         <v>6.314057679562349</v>
@@ -987,7 +987,7 @@
         <v>95.9012153642802</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.794663653424738e-18</v>
       </c>
       <c r="F31" t="n">
         <v>15.9835358940467</v>
@@ -1007,7 +1007,7 @@
         <v>67.12788668160132</v>
       </c>
       <c r="E32" t="n">
-        <v>1.584732345349948e-12</v>
+        <v>1.584690905157409e-12</v>
       </c>
       <c r="F32" t="n">
         <v>11.18798111360022</v>
@@ -1027,7 +1027,7 @@
         <v>27.28215315787498</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0001282014764570905</v>
+        <v>0.000128201476457123</v>
       </c>
       <c r="F33" t="n">
         <v>4.547025526312496</v>
@@ -1067,7 +1067,7 @@
         <v>10.76886614212692</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09578801503370971</v>
+        <v>0.09578801503370969</v>
       </c>
       <c r="F35" t="n">
         <v>1.794811023687819</v>
@@ -1087,7 +1087,7 @@
         <v>34.9413454472085</v>
       </c>
       <c r="E36" t="n">
-        <v>4.423741915227097e-06</v>
+        <v>4.423741915268941e-06</v>
       </c>
       <c r="F36" t="n">
         <v>5.823557574534751</v>
@@ -1107,7 +1107,7 @@
         <v>14.15158336064867</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02798797512596918</v>
+        <v>0.0279879751259692</v>
       </c>
       <c r="F37" t="n">
         <v>2.358597226774779</v>
@@ -1127,7 +1127,7 @@
         <v>15.68793774739015</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01553063950166944</v>
+        <v>0.01553063950166947</v>
       </c>
       <c r="F38" t="n">
         <v>2.614656291231692</v>
@@ -1147,7 +1147,7 @@
         <v>15.38548181624216</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01746136708656743</v>
+        <v>0.01746136708656747</v>
       </c>
       <c r="F39" t="n">
         <v>2.564246969373693</v>
@@ -1167,7 +1167,7 @@
         <v>159.2730518690054</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>8.441053189489179e-32</v>
       </c>
       <c r="F40" t="n">
         <v>26.54550864483423</v>
@@ -1187,7 +1187,7 @@
         <v>23.90470169728469</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0005437612209207021</v>
+        <v>0.0005437612209207151</v>
       </c>
       <c r="F41" t="n">
         <v>3.984116949547448</v>
@@ -1227,7 +1227,7 @@
         <v>51.79081216657541</v>
       </c>
       <c r="E43" t="n">
-        <v>2.054443615229218e-09</v>
+        <v>2.054443563683572e-09</v>
       </c>
       <c r="F43" t="n">
         <v>8.631802027762568</v>
@@ -1247,7 +1247,7 @@
         <v>8.315927923768527</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2158591864779158</v>
+        <v>0.2158591864779159</v>
       </c>
       <c r="F44" t="n">
         <v>1.385987987294754</v>
@@ -1287,7 +1287,7 @@
         <v>13.9155598973141</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0305937617064711</v>
+        <v>0.03059376170647114</v>
       </c>
       <c r="F46" t="n">
         <v>2.319259982885683</v>
@@ -1327,7 +1327,7 @@
         <v>14.41435846065261</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02533493847364998</v>
+        <v>0.02533493847364993</v>
       </c>
       <c r="F48" t="n">
         <v>2.402393076775435</v>
@@ -1367,7 +1367,7 @@
         <v>14.5551035283362</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02401407407786837</v>
+        <v>0.02401407407786835</v>
       </c>
       <c r="F50" t="n">
         <v>2.425850588056032</v>
@@ -1387,7 +1387,7 @@
         <v>16.67019664273066</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0105748898212894</v>
+        <v>0.01057488982128944</v>
       </c>
       <c r="F51" t="n">
         <v>2.778366107121776</v>
@@ -1427,7 +1427,7 @@
         <v>7.962795065075202</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2408417300436744</v>
+        <v>0.2408417300436743</v>
       </c>
       <c r="F53" t="n">
         <v>1.327132510845867</v>
@@ -1467,7 +1467,7 @@
         <v>10.6941564344711</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09830145745791929</v>
+        <v>0.09830145745791925</v>
       </c>
       <c r="F55" t="n">
         <v>1.782359405745183</v>
@@ -1607,7 +1607,7 @@
         <v>7.369083785328139</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2880584245038913</v>
+        <v>0.2880584245038912</v>
       </c>
       <c r="F62" t="n">
         <v>1.228180630888023</v>
@@ -1747,7 +1747,7 @@
         <v>10.95931192381604</v>
       </c>
       <c r="E69" t="n">
-        <v>0.08964211600181637</v>
+        <v>0.0896421160018164</v>
       </c>
       <c r="F69" t="n">
         <v>1.826551987302673</v>
@@ -1767,7 +1767,7 @@
         <v>23.32178695488024</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0006955652833502413</v>
+        <v>0.0006955652833502338</v>
       </c>
       <c r="F70" t="n">
         <v>3.88696449248004</v>
@@ -1807,7 +1807,7 @@
         <v>26.55545741845459</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0001753755963375125</v>
+        <v>0.000175375596337559</v>
       </c>
       <c r="F72" t="n">
         <v>4.425909569742431</v>
@@ -1827,7 +1827,7 @@
         <v>6.852326255540758</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3347202720520426</v>
+        <v>0.3347202720520425</v>
       </c>
       <c r="F73" t="n">
         <v>1.14205437592346</v>
@@ -1927,7 +1927,7 @@
         <v>7.885442349233864</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2466168392950876</v>
+        <v>0.2466168392950877</v>
       </c>
       <c r="F78" t="n">
         <v>1.314240391538977</v>
@@ -1967,7 +1967,7 @@
         <v>22.09351573901765</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0011645192869979</v>
+        <v>0.001164519286997854</v>
       </c>
       <c r="F80" t="n">
         <v>3.682252623169608</v>
@@ -1987,7 +1987,7 @@
         <v>9.991234936853045</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1250216209307912</v>
+        <v>0.1250216209307911</v>
       </c>
       <c r="F81" t="n">
         <v>1.665205822808841</v>
@@ -2007,7 +2007,7 @@
         <v>15.43845698462354</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01710736278472669</v>
+        <v>0.01710736278472666</v>
       </c>
       <c r="F82" t="n">
         <v>2.573076164103924</v>
@@ -2147,7 +2147,7 @@
         <v>7.493609751863289</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2775971803307524</v>
+        <v>0.2775971803307525</v>
       </c>
       <c r="F89" t="n">
         <v>1.248934958643882</v>
@@ -2227,7 +2227,7 @@
         <v>9.67034794415714</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1392385281602951</v>
+        <v>0.1392385281602952</v>
       </c>
       <c r="F93" t="n">
         <v>1.611724657359523</v>
@@ -2347,7 +2347,7 @@
         <v>7.060317660191877</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3153050832939674</v>
+        <v>0.3153050832939675</v>
       </c>
       <c r="F99" t="n">
         <v>1.176719610031979</v>
@@ -2387,7 +2387,7 @@
         <v>12.12600699547555</v>
       </c>
       <c r="E101" t="n">
-        <v>0.05921606060279372</v>
+        <v>0.05921606060279371</v>
       </c>
       <c r="F101" t="n">
         <v>2.021001165912591</v>
@@ -2427,7 +2427,7 @@
         <v>6.057585977503066</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4167703012508599</v>
+        <v>0.4167703012508598</v>
       </c>
       <c r="F103" t="n">
         <v>1.009597662917178</v>
@@ -2467,7 +2467,7 @@
         <v>7.758863621237738</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2563072513529923</v>
+        <v>0.2563072513529922</v>
       </c>
       <c r="F105" t="n">
         <v>1.293143936872956</v>
@@ -2507,7 +2507,7 @@
         <v>7.279101918054007</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2958055078518751</v>
+        <v>0.295805507851875</v>
       </c>
       <c r="F107" t="n">
         <v>1.213183653009001</v>
@@ -2547,7 +2547,7 @@
         <v>7.42128902821691</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2836361177956863</v>
+        <v>0.2836361177956864</v>
       </c>
       <c r="F109" t="n">
         <v>1.236881504702818</v>
@@ -2827,7 +2827,7 @@
         <v>6.318420652723503</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3884816184335218</v>
+        <v>0.3884816184335219</v>
       </c>
       <c r="F123" t="n">
         <v>1.05307010878725</v>
@@ -3407,7 +3407,7 @@
         <v>11.45840517618375</v>
       </c>
       <c r="E152" t="n">
-        <v>0.07520082829308361</v>
+        <v>0.07520082829308367</v>
       </c>
       <c r="F152" t="n">
         <v>1.909734196030626</v>
@@ -3447,7 +3447,7 @@
         <v>14.55719988372483</v>
       </c>
       <c r="E154" t="n">
-        <v>0.02399490461690956</v>
+        <v>0.02399490461690954</v>
       </c>
       <c r="F154" t="n">
         <v>2.426199980620805</v>
@@ -3467,7 +3467,7 @@
         <v>9.32871605419181</v>
       </c>
       <c r="E155" t="n">
-        <v>0.1559177498604165</v>
+        <v>0.1559177498604166</v>
       </c>
       <c r="F155" t="n">
         <v>1.554786009031968</v>
@@ -3707,7 +3707,7 @@
         <v>8.504110290419018</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2034464827647595</v>
+        <v>0.2034464827647596</v>
       </c>
       <c r="F167" t="n">
         <v>1.417351715069836</v>
@@ -3847,7 +3847,7 @@
         <v>6.437502631299107</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3760040663240138</v>
+        <v>0.3760040663240139</v>
       </c>
       <c r="F174" t="n">
         <v>1.072917105216518</v>
@@ -3927,7 +3927,7 @@
         <v>18.91717301703477</v>
       </c>
       <c r="E178" t="n">
-        <v>0.004305825850484002</v>
+        <v>0.004305825850483949</v>
       </c>
       <c r="F178" t="n">
         <v>3.152862169505795</v>
@@ -4007,7 +4007,7 @@
         <v>11.73737442585571</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0680907452670162</v>
+        <v>0.06809074526701618</v>
       </c>
       <c r="F182" t="n">
         <v>1.956229070975952</v>
@@ -4047,7 +4047,7 @@
         <v>8.358394553993726</v>
       </c>
       <c r="E184" t="n">
-        <v>0.2130043980480101</v>
+        <v>0.21300439804801</v>
       </c>
       <c r="F184" t="n">
         <v>1.393065758998954</v>
@@ -4107,7 +4107,7 @@
         <v>13.09762755524563</v>
       </c>
       <c r="E187" t="n">
-        <v>0.04151154564637538</v>
+        <v>0.04151154564637539</v>
       </c>
       <c r="F187" t="n">
         <v>2.182937925874272</v>
@@ -4147,7 +4147,7 @@
         <v>22.4013355457761</v>
       </c>
       <c r="E189" t="n">
-        <v>0.001023898213823093</v>
+        <v>0.001023898213823075</v>
       </c>
       <c r="F189" t="n">
         <v>3.733555924296017</v>
@@ -4187,7 +4187,7 @@
         <v>7.786232622935689</v>
       </c>
       <c r="E191" t="n">
-        <v>0.2541865535683561</v>
+        <v>0.254186553568356</v>
       </c>
       <c r="F191" t="n">
         <v>1.297705437155948</v>
@@ -4347,7 +4347,7 @@
         <v>8.621359845283079</v>
       </c>
       <c r="E199" t="n">
-        <v>0.196018809156111</v>
+        <v>0.1960188091561111</v>
       </c>
       <c r="F199" t="n">
         <v>1.43689330754718</v>
@@ -4647,7 +4647,7 @@
         <v>8.250686897186064</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2203066655729227</v>
+        <v>0.2203066655729226</v>
       </c>
       <c r="F214" t="n">
         <v>1.375114482864344</v>
@@ -4667,7 +4667,7 @@
         <v>10.81594500103952</v>
       </c>
       <c r="E215" t="n">
-        <v>0.09423418092644997</v>
+        <v>0.09423418092644995</v>
       </c>
       <c r="F215" t="n">
         <v>1.802657500173253</v>
@@ -4827,7 +4827,7 @@
         <v>22.24466370367335</v>
       </c>
       <c r="E223" t="n">
-        <v>0.001093252183009374</v>
+        <v>0.001093252183009339</v>
       </c>
       <c r="F223" t="n">
         <v>3.707443950612225</v>
@@ -4847,7 +4847,7 @@
         <v>19.52304811882586</v>
       </c>
       <c r="E224" t="n">
-        <v>0.003365700612539491</v>
+        <v>0.003365700612539499</v>
       </c>
       <c r="F224" t="n">
         <v>3.253841353137643</v>
@@ -4907,7 +4907,7 @@
         <v>11.93109036022067</v>
       </c>
       <c r="E227" t="n">
-        <v>0.06352386808976684</v>
+        <v>0.06352386808976682</v>
       </c>
       <c r="F227" t="n">
         <v>1.988515060036779</v>
@@ -4927,7 +4927,7 @@
         <v>9.229542112841731</v>
       </c>
       <c r="E228" t="n">
-        <v>0.161074368470482</v>
+        <v>0.1610743684704819</v>
       </c>
       <c r="F228" t="n">
         <v>1.538257018806955</v>
